--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
+    <sheet name="MAILSLOT RESULTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -108,12 +109,30 @@
   <si>
     <t>Data Copy (40 Bytes)</t>
   </si>
+  <si>
+    <t xml:space="preserve">40 BYTES </t>
+  </si>
+  <si>
+    <t>400 BYTES</t>
+  </si>
+  <si>
+    <t>4000 BYTES</t>
+  </si>
+  <si>
+    <t>40 000 BYTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILSLOTS --&gt; Purely JNI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILSLOTS --&gt; Java IO Write </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +170,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -178,12 +206,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +513,7 @@
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1049,4 +1088,461 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>804624</v>
+      </c>
+      <c r="C3">
+        <v>822371</v>
+      </c>
+      <c r="D3">
+        <v>879385</v>
+      </c>
+      <c r="E3">
+        <v>919032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>650949</v>
+      </c>
+      <c r="C4">
+        <v>601108</v>
+      </c>
+      <c r="D4">
+        <v>959810</v>
+      </c>
+      <c r="E4">
+        <v>1089698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>699657</v>
+      </c>
+      <c r="C5">
+        <v>981332</v>
+      </c>
+      <c r="D5">
+        <v>1046654</v>
+      </c>
+      <c r="E5">
+        <v>1041746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>465179</v>
+      </c>
+      <c r="C6">
+        <v>721179</v>
+      </c>
+      <c r="D6">
+        <v>987751</v>
+      </c>
+      <c r="E6">
+        <v>994925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>485191</v>
+      </c>
+      <c r="C7">
+        <v>920164</v>
+      </c>
+      <c r="D7">
+        <v>1055338</v>
+      </c>
+      <c r="E7">
+        <v>966984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>654725</v>
+      </c>
+      <c r="C8">
+        <v>907327</v>
+      </c>
+      <c r="D8">
+        <v>1023999</v>
+      </c>
+      <c r="E8">
+        <v>1061002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>830678</v>
+      </c>
+      <c r="C9">
+        <v>934135</v>
+      </c>
+      <c r="D9">
+        <v>1033438</v>
+      </c>
+      <c r="E9">
+        <v>858241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>546737</v>
+      </c>
+      <c r="C10">
+        <v>899020</v>
+      </c>
+      <c r="D10">
+        <v>864660</v>
+      </c>
+      <c r="E10">
+        <v>1009651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>770642</v>
+      </c>
+      <c r="C11">
+        <v>1082524</v>
+      </c>
+      <c r="D11">
+        <v>944330</v>
+      </c>
+      <c r="E11">
+        <v>809911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>751008</v>
+      </c>
+      <c r="C12">
+        <v>839740</v>
+      </c>
+      <c r="D12">
+        <v>920542</v>
+      </c>
+      <c r="E12">
+        <v>1081391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <f>AVERAGE(B3:B12)</f>
+        <v>665939</v>
+      </c>
+      <c r="C13" s="7">
+        <f>AVERAGE(C3:C12)</f>
+        <v>870890</v>
+      </c>
+      <c r="D13" s="7">
+        <f>AVERAGE(D3:D12)</f>
+        <v>971590.7</v>
+      </c>
+      <c r="E13" s="7">
+        <f>AVERAGE(E3:E12)</f>
+        <v>983258.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>185770</v>
+      </c>
+      <c r="C17">
+        <v>226926</v>
+      </c>
+      <c r="D17">
+        <v>172177</v>
+      </c>
+      <c r="E17">
+        <v>177463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>194454</v>
+      </c>
+      <c r="C18">
+        <v>216354</v>
+      </c>
+      <c r="D18">
+        <v>324342</v>
+      </c>
+      <c r="E18">
+        <v>234477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>269215</v>
+      </c>
+      <c r="C19">
+        <v>221640</v>
+      </c>
+      <c r="D19">
+        <v>221640</v>
+      </c>
+      <c r="E19">
+        <v>291870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>178596</v>
+      </c>
+      <c r="C20">
+        <v>231079</v>
+      </c>
+      <c r="D20">
+        <v>178596</v>
+      </c>
+      <c r="E20">
+        <v>206537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>194077</v>
+      </c>
+      <c r="C21">
+        <v>187280</v>
+      </c>
+      <c r="D21">
+        <v>180106</v>
+      </c>
+      <c r="E21">
+        <v>177840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>224283</v>
+      </c>
+      <c r="C22">
+        <v>229946</v>
+      </c>
+      <c r="D22">
+        <v>217864</v>
+      </c>
+      <c r="E22">
+        <v>213711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>195964</v>
+      </c>
+      <c r="C23">
+        <v>234478</v>
+      </c>
+      <c r="D23">
+        <v>282430</v>
+      </c>
+      <c r="E23">
+        <v>214088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>236365</v>
+      </c>
+      <c r="C24">
+        <v>238254</v>
+      </c>
+      <c r="D24">
+        <v>179729</v>
+      </c>
+      <c r="E24">
+        <v>411186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>265439</v>
+      </c>
+      <c r="C25">
+        <v>266572</v>
+      </c>
+      <c r="D25">
+        <v>181239</v>
+      </c>
+      <c r="E25">
+        <v>190678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>184260</v>
+      </c>
+      <c r="C26">
+        <v>166514</v>
+      </c>
+      <c r="D26">
+        <v>303952</v>
+      </c>
+      <c r="E26">
+        <v>203516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B17:B26)</f>
+        <v>212842.3</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C17:C26)</f>
+        <v>221904.3</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(D17:D26)</f>
+        <v>224207.5</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:E26)</f>
+        <v>232136.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
     <sheet name="MAILSLOT RESULTS" sheetId="2" r:id="rId2"/>
+    <sheet name="NAMED PIPE RESULTS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -126,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAILSLOTS --&gt; Java IO Write </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMED PIPES </t>
   </si>
 </sst>
 </file>
@@ -209,12 +213,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -223,6 +221,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,26 +522,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -893,16 +897,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1094,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,33 +1109,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1148,7 +1152,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1165,7 +1169,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1182,7 +1186,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1199,7 +1203,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1233,7 +1237,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1250,7 +1254,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1267,7 +1271,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1284,7 +1288,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1301,53 +1305,53 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <f>AVERAGE(B3:B12)</f>
         <v>665939</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <f>AVERAGE(C3:C12)</f>
         <v>870890</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f>AVERAGE(D3:D12)</f>
         <v>971590.7</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <f>AVERAGE(E3:E12)</f>
         <v>983258.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17">
@@ -1364,7 +1368,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
       <c r="B18">
@@ -1381,7 +1385,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
       <c r="B19">
@@ -1398,7 +1402,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20">
@@ -1415,7 +1419,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
       <c r="B21">
@@ -1432,7 +1436,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>6</v>
       </c>
       <c r="B22">
@@ -1449,7 +1453,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>7</v>
       </c>
       <c r="B23">
@@ -1466,7 +1470,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>8</v>
       </c>
       <c r="B24">
@@ -1483,7 +1487,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>9</v>
       </c>
       <c r="B25">
@@ -1500,7 +1504,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>10</v>
       </c>
       <c r="B26">
@@ -1517,7 +1521,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B27">
@@ -1545,4 +1549,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>672093</v>
+      </c>
+      <c r="C3">
+        <v>818218</v>
+      </c>
+      <c r="D3">
+        <v>890335</v>
+      </c>
+      <c r="E3">
+        <v>1057604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>773663</v>
+      </c>
+      <c r="C4">
+        <v>1051562</v>
+      </c>
+      <c r="D4">
+        <v>870324</v>
+      </c>
+      <c r="E4">
+        <v>958300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>995681</v>
+      </c>
+      <c r="C5">
+        <v>1053073</v>
+      </c>
+      <c r="D5">
+        <v>835964</v>
+      </c>
+      <c r="E5">
+        <v>637734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1108577</v>
+      </c>
+      <c r="C6">
+        <v>926206</v>
+      </c>
+      <c r="D6">
+        <v>797073</v>
+      </c>
+      <c r="E6">
+        <v>1122925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1071574</v>
+      </c>
+      <c r="C7">
+        <v>842383</v>
+      </c>
+      <c r="D7">
+        <v>1341544</v>
+      </c>
+      <c r="E7">
+        <v>723067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>680401</v>
+      </c>
+      <c r="C8">
+        <v>1053828</v>
+      </c>
+      <c r="D8">
+        <v>1311338</v>
+      </c>
+      <c r="E8">
+        <v>998324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1064023</v>
+      </c>
+      <c r="C9">
+        <v>761203</v>
+      </c>
+      <c r="D9">
+        <v>714760</v>
+      </c>
+      <c r="E9">
+        <v>1127834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1051940</v>
+      </c>
+      <c r="C10">
+        <v>845781</v>
+      </c>
+      <c r="D10">
+        <v>805002</v>
+      </c>
+      <c r="E10">
+        <v>968117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1041746</v>
+      </c>
+      <c r="C11">
+        <v>1148600</v>
+      </c>
+      <c r="D11">
+        <v>593934</v>
+      </c>
+      <c r="E11">
+        <v>1051562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>618855</v>
+      </c>
+      <c r="C12">
+        <v>941687</v>
+      </c>
+      <c r="D12">
+        <v>807645</v>
+      </c>
+      <c r="E12">
+        <v>1038347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <f>AVERAGE(B3:B12)</f>
+        <v>907855.3</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>944254.1</v>
+      </c>
+      <c r="D13" s="5">
+        <f>AVERAGE(D3:D12)</f>
+        <v>896791.9</v>
+      </c>
+      <c r="E13" s="5">
+        <f>AVERAGE(E3:E12)</f>
+        <v>968381.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
     <sheet name="MAILSLOT RESULTS" sheetId="2" r:id="rId2"/>
     <sheet name="NAMED PIPE RESULTS" sheetId="3" r:id="rId3"/>
+    <sheet name="WINSOCK RESULTS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -130,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">NAMED PIPES </t>
+  </si>
+  <si>
+    <t>Winsock</t>
   </si>
 </sst>
 </file>
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,4 +1789,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2345909</v>
+      </c>
+      <c r="C3">
+        <v>2366676</v>
+      </c>
+      <c r="D3">
+        <v>3408044</v>
+      </c>
+      <c r="E3">
+        <v>40499313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2816752</v>
+      </c>
+      <c r="C4">
+        <v>2796741</v>
+      </c>
+      <c r="D4">
+        <v>2419160</v>
+      </c>
+      <c r="E4">
+        <v>36669511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2543384</v>
+      </c>
+      <c r="C5">
+        <v>2245850</v>
+      </c>
+      <c r="D5">
+        <v>2563396</v>
+      </c>
+      <c r="E5">
+        <v>45141669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2550180</v>
+      </c>
+      <c r="C6">
+        <v>2804670</v>
+      </c>
+      <c r="D6">
+        <v>4356904</v>
+      </c>
+      <c r="E6">
+        <v>40935419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2815242</v>
+      </c>
+      <c r="C7">
+        <v>2389331</v>
+      </c>
+      <c r="D7">
+        <v>2336848</v>
+      </c>
+      <c r="E7">
+        <v>34904321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2815242</v>
+      </c>
+      <c r="C8">
+        <v>2938334</v>
+      </c>
+      <c r="D8">
+        <v>3912114</v>
+      </c>
+      <c r="E8">
+        <v>37184909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2720847</v>
+      </c>
+      <c r="C9">
+        <v>2783526</v>
+      </c>
+      <c r="D9">
+        <v>2057438</v>
+      </c>
+      <c r="E9">
+        <v>47468698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2717071</v>
+      </c>
+      <c r="C10">
+        <v>4036716</v>
+      </c>
+      <c r="D10">
+        <v>2755207</v>
+      </c>
+      <c r="E10">
+        <v>46709384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2689885</v>
+      </c>
+      <c r="C11">
+        <v>2857531</v>
+      </c>
+      <c r="D11">
+        <v>3334794</v>
+      </c>
+      <c r="E11">
+        <v>36363671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2598511</v>
+      </c>
+      <c r="C12">
+        <v>3857365</v>
+      </c>
+      <c r="D12">
+        <v>3908717</v>
+      </c>
+      <c r="E12">
+        <v>32130990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <f>AVERAGE(B3:B12)</f>
+        <v>2661302.2999999998</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>2907674</v>
+      </c>
+      <c r="D13" s="5">
+        <f>AVERAGE(D3:D12)</f>
+        <v>3105262.2</v>
+      </c>
+      <c r="E13" s="5">
+        <f>AVERAGE(E3:E12)</f>
+        <v>39800788.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
     <sheet name="MAILSLOT RESULTS" sheetId="2" r:id="rId2"/>
     <sheet name="NAMED PIPE RESULTS" sheetId="3" r:id="rId3"/>
     <sheet name="WINSOCK RESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="JAVA SOCKETS RESULTS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -134,6 +135,9 @@
   </si>
   <si>
     <t>Winsock</t>
+  </si>
+  <si>
+    <t>Java Sockets (No JNI)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
@@ -1795,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,4 +2031,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5913293</v>
+      </c>
+      <c r="C3">
+        <v>5980502</v>
+      </c>
+      <c r="D3">
+        <v>7009409</v>
+      </c>
+      <c r="E3">
+        <v>6315794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6116808</v>
+      </c>
+      <c r="C4">
+        <v>6142107</v>
+      </c>
+      <c r="D4">
+        <v>6151546</v>
+      </c>
+      <c r="E4">
+        <v>6184396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6149657</v>
+      </c>
+      <c r="C5">
+        <v>6368655</v>
+      </c>
+      <c r="D5">
+        <v>6008065</v>
+      </c>
+      <c r="E5">
+        <v>5937080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6090000</v>
+      </c>
+      <c r="C6">
+        <v>6108124</v>
+      </c>
+      <c r="D6">
+        <v>5711664</v>
+      </c>
+      <c r="E6">
+        <v>6934271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6074142</v>
+      </c>
+      <c r="C7">
+        <v>6122472</v>
+      </c>
+      <c r="D7">
+        <v>6719805</v>
+      </c>
+      <c r="E7">
+        <v>5744891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5859676</v>
+      </c>
+      <c r="C8">
+        <v>5820786</v>
+      </c>
+      <c r="D8">
+        <v>5751310</v>
+      </c>
+      <c r="E8">
+        <v>6995817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6604642</v>
+      </c>
+      <c r="C9">
+        <v>5925375</v>
+      </c>
+      <c r="D9">
+        <v>6303711</v>
+      </c>
+      <c r="E9">
+        <v>5621799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5592726</v>
+      </c>
+      <c r="C10">
+        <v>5822673</v>
+      </c>
+      <c r="D10">
+        <v>6430200</v>
+      </c>
+      <c r="E10">
+        <v>5738095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5438673</v>
+      </c>
+      <c r="C11">
+        <v>6219887</v>
+      </c>
+      <c r="D11">
+        <v>5604431</v>
+      </c>
+      <c r="E11">
+        <v>6887450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6552159</v>
+      </c>
+      <c r="C12">
+        <v>5653895</v>
+      </c>
+      <c r="D12">
+        <v>6486082</v>
+      </c>
+      <c r="E12">
+        <v>6496654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B3:B12)</f>
+        <v>6039177.5999999996</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">AVERAGE(C3:C12)</f>
+        <v>6016447.5999999996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6217622.2999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6285624.7000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="NAMED PIPE RESULTS" sheetId="3" r:id="rId3"/>
     <sheet name="WINSOCK RESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="JAVA SOCKETS RESULTS" sheetId="5" r:id="rId5"/>
+    <sheet name="MEM MAP RESULTS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -2037,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,4 +2270,240 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>106100</v>
+      </c>
+      <c r="C3">
+        <v>106855</v>
+      </c>
+      <c r="D3">
+        <v>103457</v>
+      </c>
+      <c r="E3">
+        <v>81557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>89110</v>
+      </c>
+      <c r="C4">
+        <v>99682</v>
+      </c>
+      <c r="D4">
+        <v>76649</v>
+      </c>
+      <c r="E4">
+        <v>118561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>83823</v>
+      </c>
+      <c r="C5">
+        <v>86089</v>
+      </c>
+      <c r="D5">
+        <v>74761</v>
+      </c>
+      <c r="E5">
+        <v>71363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71741</v>
+      </c>
+      <c r="C6">
+        <v>74383</v>
+      </c>
+      <c r="D6">
+        <v>350395</v>
+      </c>
+      <c r="E6">
+        <v>131021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>69474</v>
+      </c>
+      <c r="C7">
+        <v>76271</v>
+      </c>
+      <c r="D7">
+        <v>95150</v>
+      </c>
+      <c r="E7">
+        <v>74383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>79292</v>
+      </c>
+      <c r="C8">
+        <v>78537</v>
+      </c>
+      <c r="D8">
+        <v>103079</v>
+      </c>
+      <c r="E8">
+        <v>79291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>118560</v>
+      </c>
+      <c r="C9">
+        <v>152920</v>
+      </c>
+      <c r="D9">
+        <v>103080</v>
+      </c>
+      <c r="E9">
+        <v>72873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>75516</v>
+      </c>
+      <c r="C10">
+        <v>126867</v>
+      </c>
+      <c r="D10">
+        <v>118938</v>
+      </c>
+      <c r="E10">
+        <v>76649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>79292</v>
+      </c>
+      <c r="C11">
+        <v>72117</v>
+      </c>
+      <c r="D11">
+        <v>86844</v>
+      </c>
+      <c r="E11">
+        <v>79292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>73628</v>
+      </c>
+      <c r="C12">
+        <v>79670</v>
+      </c>
+      <c r="D12">
+        <v>81180</v>
+      </c>
+      <c r="E12">
+        <v>77404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B3:B12)</f>
+        <v>84653.6</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C3:C12)</f>
+        <v>95339.1</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D3:D12)</f>
+        <v>119353.3</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E3:E12)</f>
+        <v>86239.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="840" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="840"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="WINSOCK RESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="JAVA SOCKETS RESULTS" sheetId="5" r:id="rId5"/>
     <sheet name="MEM MAP RESULTS" sheetId="6" r:id="rId6"/>
+    <sheet name="DATA COPY RESULTS" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -139,6 +140,9 @@
   </si>
   <si>
     <t>Java Sockets (No JNI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Copy </t>
   </si>
 </sst>
 </file>
@@ -518,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2043,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,19 +2251,19 @@
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <f>AVERAGE(B3:B12)</f>
         <v>6039177.5999999996</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" ref="C13:E13" si="0">AVERAGE(C3:C12)</f>
         <v>6016447.5999999996</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>6217622.2999999998</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>6285624.7000000002</v>
       </c>
@@ -2276,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,19 +2487,19 @@
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <f>AVERAGE(B3:B12)</f>
         <v>84653.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f>AVERAGE(C3:C12)</f>
         <v>95339.1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <f>AVERAGE(D3:D12)</f>
         <v>119353.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <f>AVERAGE(E3:E12)</f>
         <v>86239.4</v>
       </c>
@@ -2506,4 +2510,241 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>327736706</v>
+      </c>
+      <c r="C3">
+        <v>1909893371</v>
+      </c>
+      <c r="D3">
+        <v>1908259201</v>
+      </c>
+      <c r="E3">
+        <v>1781589540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3007405114</v>
+      </c>
+      <c r="C4">
+        <v>2582338660</v>
+      </c>
+      <c r="D4">
+        <v>1752484104</v>
+      </c>
+      <c r="E4">
+        <v>1981037516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2001113863</v>
+      </c>
+      <c r="C5">
+        <v>2078005921</v>
+      </c>
+      <c r="D5">
+        <v>1599648095</v>
+      </c>
+      <c r="E5">
+        <v>1675578076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5738582713</v>
+      </c>
+      <c r="C6">
+        <v>1991966214</v>
+      </c>
+      <c r="D6">
+        <v>1584572805</v>
+      </c>
+      <c r="E6">
+        <v>2259836734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1440270499</v>
+      </c>
+      <c r="C7">
+        <v>1723703388</v>
+      </c>
+      <c r="D7">
+        <v>1612499811</v>
+      </c>
+      <c r="E7">
+        <v>1894197717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1281181753</v>
+      </c>
+      <c r="C8">
+        <v>1638359940</v>
+      </c>
+      <c r="D8">
+        <v>2904203229</v>
+      </c>
+      <c r="E8">
+        <v>2011930042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2111512815</v>
+      </c>
+      <c r="C9">
+        <v>2371708251</v>
+      </c>
+      <c r="D9">
+        <v>2116357931</v>
+      </c>
+      <c r="E9">
+        <v>4389688270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2074325641</v>
+      </c>
+      <c r="C10">
+        <v>2297538173</v>
+      </c>
+      <c r="D10">
+        <v>2006908595</v>
+      </c>
+      <c r="E10">
+        <v>4113563457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2130233647</v>
+      </c>
+      <c r="C11">
+        <v>1456606153</v>
+      </c>
+      <c r="D11">
+        <v>1624242950</v>
+      </c>
+      <c r="E11">
+        <v>2921578741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2117753470</v>
+      </c>
+      <c r="C12">
+        <v>1725827280</v>
+      </c>
+      <c r="D12">
+        <v>2629873057</v>
+      </c>
+      <c r="E12">
+        <v>2207160820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <f>AVERAGE(B3:B12)</f>
+        <v>2223011622.0999999</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>1977594735.0999999</v>
+      </c>
+      <c r="D13" s="5">
+        <f>AVERAGE(D3:D12)</f>
+        <v>1973904977.8</v>
+      </c>
+      <c r="E13" s="5">
+        <f>AVERAGE(E3:E12)</f>
+        <v>2523616091.3000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -108,12 +109,51 @@
   <si>
     <t>Data Copy (40 Bytes)</t>
   </si>
+  <si>
+    <t>File Mapping</t>
+  </si>
+  <si>
+    <t>Pipes</t>
+  </si>
+  <si>
+    <t>Winsock</t>
+  </si>
+  <si>
+    <t>40 Bytes</t>
+  </si>
+  <si>
+    <t>400 Bytes</t>
+  </si>
+  <si>
+    <t>IPC Mechanism</t>
+  </si>
+  <si>
+    <t>Mailslots (JNI Only)</t>
+  </si>
+  <si>
+    <t>Mailslots (Java IO Read)</t>
+  </si>
+  <si>
+    <t>40 000 Bytes</t>
+  </si>
+  <si>
+    <t>4 000 Bytes</t>
+  </si>
+  <si>
+    <t>Data Copy</t>
+  </si>
+  <si>
+    <t>Java Sockets</t>
+  </si>
+  <si>
+    <t>0 Bytes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -178,9 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,6 +250,4471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800"/>
+              <a:t>Windows IPC Performance So Far (Without Sockets and Data Copy)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.653600000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>907.85530000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-ECF1-4869-B4D0-AB7AF1805A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86.239399999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>870.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944.25409999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-ECF1-4869-B4D0-AB7AF1805A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896.79100000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-ECF1-4869-B4D0-AB7AF1805A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119.35299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983.25800000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968.38099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-ECF1-4869-B4D0-AB7AF1805A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="332051768"/>
+        <c:axId val="332053080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="332051768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332053080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332053080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1100" baseline="0"/>
+                  <a:t> IN µs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332051768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800"/>
+              <a:t>IPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+              <a:t> Performance with Winsock</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>84.653600000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>907.85530000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2661.3020000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6B9-4DE1-BD67-D37684EC5DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86.239399999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>870.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944.25409999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2907.674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6B9-4DE1-BD67-D37684EC5DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896.79100000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3105.2620000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6B9-4DE1-BD67-D37684EC5DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>119.35299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983.25800000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3980.078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E6B9-4DE1-BD67-D37684EC5DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="401061088"/>
+        <c:axId val="401061416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401061088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401061416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401061416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0"/>
+                  <a:t> IN </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>µs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401061088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+              <a:t> of</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800"/>
+              <a:t>All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+              <a:t> Windows IPC Mechanism So Far - Data Copy is Ugly!</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.653600000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>907.85530000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2661.3020000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2223011.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9287-45FE-ACD3-CBB9C1601FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>86.239399999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>870.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944.25409999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2907.674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1977594.7350000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9287-45FE-ACD3-CBB9C1601FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>95.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896.79100000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3105.2620000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973904.9779999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9287-45FE-ACD3-CBB9C1601FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119.35299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983.25800000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3980.078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2523616.091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9287-45FE-ACD3-CBB9C1601FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="393090144"/>
+        <c:axId val="393095720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="393090144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393095720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393095720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0"/>
+                  <a:t> IN </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>µs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393090144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> of Windows IPC in Comparison to Java Sockets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.653600000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.239399999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.35299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>870.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>971.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>983.25800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mailslots (Java IO Read)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pipes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>907.85530000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>944.25409999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896.79100000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968.38099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6039.1776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6046.4475999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6217.6223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6285.6247000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Winsock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2661.3020000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2907.674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3105.2620000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3980.078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-101F-41E9-AC89-DF861B9246DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="405879624"/>
+        <c:axId val="405879952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="405879624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405879952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405879952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0"/>
+                  <a:t> IN </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" sz="1050" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>µs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405879624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184894</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -244,7 +4760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,7 +4795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -479,26 +4995,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -854,16 +5370,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1049,4 +5565,212 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>84653.6/1000</f>
+        <v>84.653600000000012</v>
+      </c>
+      <c r="D2">
+        <f>86239.4/1000</f>
+        <v>86.239399999999989</v>
+      </c>
+      <c r="E2">
+        <f>95339/1000</f>
+        <v>95.338999999999999</v>
+      </c>
+      <c r="F2">
+        <f>119353/1000</f>
+        <v>119.35299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>665939/1000</f>
+        <v>665.93899999999996</v>
+      </c>
+      <c r="D3">
+        <f>870890/1000</f>
+        <v>870.89</v>
+      </c>
+      <c r="E3">
+        <f>971590/1000</f>
+        <v>971.59</v>
+      </c>
+      <c r="F3">
+        <f>983258/1000</f>
+        <v>983.25800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>212842/1000</f>
+        <v>212.84200000000001</v>
+      </c>
+      <c r="D4">
+        <f>221904/1000</f>
+        <v>221.904</v>
+      </c>
+      <c r="E4">
+        <f>224207/1000</f>
+        <v>224.20699999999999</v>
+      </c>
+      <c r="F4">
+        <f>232136/1000</f>
+        <v>232.136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>907855.3/1000</f>
+        <v>907.85530000000006</v>
+      </c>
+      <c r="D5">
+        <f>944254.1/1000</f>
+        <v>944.25409999999999</v>
+      </c>
+      <c r="E5">
+        <f>896791/1000</f>
+        <v>896.79100000000005</v>
+      </c>
+      <c r="F5">
+        <f>968381/1000</f>
+        <v>968.38099999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>2661302/1000</f>
+        <v>2661.3020000000001</v>
+      </c>
+      <c r="D6">
+        <f>2907674/1000</f>
+        <v>2907.674</v>
+      </c>
+      <c r="E6">
+        <f>3105262/1000</f>
+        <v>3105.2620000000002</v>
+      </c>
+      <c r="F6">
+        <f>3980078/1000</f>
+        <v>3980.078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2223011.62</v>
+      </c>
+      <c r="D7">
+        <v>1977594.7350000001</v>
+      </c>
+      <c r="E7">
+        <v>1973904.9779999999</v>
+      </c>
+      <c r="F7">
+        <v>2523616.091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>6039177.6/1000</f>
+        <v>6039.1776</v>
+      </c>
+      <c r="D8">
+        <f>6046447.6/1000</f>
+        <v>6046.4475999999995</v>
+      </c>
+      <c r="E8">
+        <f>6217622.3/1000</f>
+        <v>6217.6223</v>
+      </c>
+      <c r="F8">
+        <f>6285624.7/1000</f>
+        <v>6285.6247000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sem2" sheetId="2" r:id="rId2"/>
+    <sheet name="Thesis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -148,6 +149,21 @@
   <si>
     <t>0 Bytes</t>
   </si>
+  <si>
+    <t>Named Pipes (JNI Only)</t>
+  </si>
+  <si>
+    <t>Mailslots (Java Write)</t>
+  </si>
+  <si>
+    <t>Named Pipes (Java Write)</t>
+  </si>
+  <si>
+    <t>Named Pipe (JNI Only)</t>
+  </si>
+  <si>
+    <t>Named Pipe (Java Write)</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,11 +239,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,6 +331,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,7 +421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Sem2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +442,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Sem2'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -355,7 +462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>'Sem2'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -385,7 +492,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Sem2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -406,7 +513,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Sem2'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -426,7 +533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'Sem2'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -456,7 +563,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Sem2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -477,7 +584,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Sem2'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -497,7 +604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>'Sem2'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -527,7 +634,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Sem2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -548,7 +655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Sem2'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -568,7 +675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>'Sem2'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -896,7 +1003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Sem2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,7 +1024,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Sem2'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -940,7 +1047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>'Sem2'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -973,7 +1080,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Sem2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -994,7 +1101,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Sem2'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1017,7 +1124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>'Sem2'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1050,7 +1157,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Sem2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,7 +1178,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Sem2'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1094,7 +1201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>'Sem2'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1127,7 +1234,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Sem2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1148,7 +1255,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'Sem2'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1171,7 +1278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:f>'Sem2'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1564,7 +1671,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Sem2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1585,7 +1692,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Sem2'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1611,7 +1718,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>'Sem2'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1647,7 +1754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Sem2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1668,7 +1775,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Sem2'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1694,7 +1801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>'Sem2'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1730,7 +1837,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Sem2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,7 +1858,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Sem2'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1777,7 +1884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>'Sem2'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1813,7 +1920,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Sem2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1834,7 +1941,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>'Sem2'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1860,7 +1967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>'Sem2'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2201,7 +2308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2242,7 +2348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Sem2'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,7 +2371,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'Sem2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2288,7 +2394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>'Sem2'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2322,7 +2428,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Sem2'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2345,7 +2451,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'Sem2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2368,7 +2474,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>'Sem2'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2402,7 +2508,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>'Sem2'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,7 +2531,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'Sem2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2448,7 +2554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>'Sem2'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2482,7 +2588,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>'Sem2'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2505,7 +2611,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'Sem2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2528,7 +2634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:f>'Sem2'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2562,7 +2668,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>'Sem2'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2585,7 +2691,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>'Sem2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2608,7 +2714,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:f>'Sem2'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2657,7 +2763,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:f>'Sem2'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2808,7 +2914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2883,7 +2988,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4983,7 +5087,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5571,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5773,4 +5877,566 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C14:C23)</f>
+        <v>83369.899999999994</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(D14:D23)</f>
+        <v>116974.5</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(E14:E23)</f>
+        <v>147143.4</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(F14:F23)</f>
+        <v>235119.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(C25:C34)</f>
+        <v>53087.7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="0">AVERAGE(D25:D34)</f>
+        <v>76875.7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>63546.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>107912.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>73628</v>
+      </c>
+      <c r="D14" s="8">
+        <v>104590</v>
+      </c>
+      <c r="E14" s="8">
+        <v>112519</v>
+      </c>
+      <c r="F14" s="9">
+        <v>91752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>77027</v>
+      </c>
+      <c r="D15" s="8">
+        <v>90242</v>
+      </c>
+      <c r="E15" s="8">
+        <v>106478</v>
+      </c>
+      <c r="F15" s="9">
+        <v>100814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>74006</v>
+      </c>
+      <c r="D16" s="8">
+        <v>109121</v>
+      </c>
+      <c r="E16" s="8">
+        <v>100814</v>
+      </c>
+      <c r="F16" s="9">
+        <v>580719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>86466</v>
+      </c>
+      <c r="D17" s="8">
+        <v>75139</v>
+      </c>
+      <c r="E17" s="8">
+        <v>201250</v>
+      </c>
+      <c r="F17" s="9">
+        <v>81558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>74383</v>
+      </c>
+      <c r="D18" s="8">
+        <v>77027</v>
+      </c>
+      <c r="E18" s="8">
+        <v>123847</v>
+      </c>
+      <c r="F18" s="9">
+        <v>877876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>82690</v>
+      </c>
+      <c r="D19" s="8">
+        <v>91374</v>
+      </c>
+      <c r="E19" s="8">
+        <v>148389</v>
+      </c>
+      <c r="F19" s="9">
+        <v>126112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>87599</v>
+      </c>
+      <c r="D20" s="8">
+        <v>75516</v>
+      </c>
+      <c r="E20" s="8">
+        <v>107611</v>
+      </c>
+      <c r="F20" s="9">
+        <v>80047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>83446</v>
+      </c>
+      <c r="D21" s="8">
+        <v>84200</v>
+      </c>
+      <c r="E21" s="8">
+        <v>300177</v>
+      </c>
+      <c r="F21" s="9">
+        <v>241275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>124224</v>
+      </c>
+      <c r="D22" s="8">
+        <v>367386</v>
+      </c>
+      <c r="E22" s="8">
+        <v>123847</v>
+      </c>
+      <c r="F22" s="9">
+        <v>87599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>70230</v>
+      </c>
+      <c r="D23" s="11">
+        <v>95150</v>
+      </c>
+      <c r="E23" s="11">
+        <v>146502</v>
+      </c>
+      <c r="F23" s="12">
+        <v>83445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>77782</v>
+      </c>
+      <c r="D25" s="8">
+        <v>67587</v>
+      </c>
+      <c r="E25" s="8">
+        <v>104212</v>
+      </c>
+      <c r="F25" s="9">
+        <v>153676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44932</v>
+      </c>
+      <c r="D26" s="8">
+        <v>49841</v>
+      </c>
+      <c r="E26" s="8">
+        <v>63433</v>
+      </c>
+      <c r="F26" s="9">
+        <v>123847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>48330</v>
+      </c>
+      <c r="D27" s="8">
+        <v>68342</v>
+      </c>
+      <c r="E27" s="8">
+        <v>80047</v>
+      </c>
+      <c r="F27" s="9">
+        <v>95151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>66076</v>
+      </c>
+      <c r="D28" s="8">
+        <v>52862</v>
+      </c>
+      <c r="E28" s="8">
+        <v>77026</v>
+      </c>
+      <c r="F28" s="9">
+        <v>92507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <v>58903</v>
+      </c>
+      <c r="D29" s="8">
+        <v>282808</v>
+      </c>
+      <c r="E29" s="8">
+        <v>48331</v>
+      </c>
+      <c r="F29" s="9">
+        <v>125735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45309</v>
+      </c>
+      <c r="D30" s="8">
+        <v>45688</v>
+      </c>
+      <c r="E30" s="8">
+        <v>46820</v>
+      </c>
+      <c r="F30" s="9">
+        <v>84578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>46820</v>
+      </c>
+      <c r="D31" s="8">
+        <v>47953</v>
+      </c>
+      <c r="E31" s="8">
+        <v>45310</v>
+      </c>
+      <c r="F31" s="9">
+        <v>131398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44932</v>
+      </c>
+      <c r="D32" s="8">
+        <v>62301</v>
+      </c>
+      <c r="E32" s="8">
+        <v>74383</v>
+      </c>
+      <c r="F32" s="9">
+        <v>109499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>9</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>52106</v>
+      </c>
+      <c r="D33" s="8">
+        <v>46820</v>
+      </c>
+      <c r="E33" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F33" s="9">
+        <v>86466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>10</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>45687</v>
+      </c>
+      <c r="D34" s="11">
+        <v>44555</v>
+      </c>
+      <c r="E34" s="11">
+        <v>49841</v>
+      </c>
+      <c r="F34" s="12">
+        <v>76271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -328,9 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -342,6 +339,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +399,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,7 +815,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -864,7 +862,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -961,7 +958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1429,7 +1425,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1504,7 +1499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1629,7 +1623,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2121,7 +2114,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2196,7 +2188,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5099,26 +5090,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5474,16 +5465,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5884,7 +5875,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6013,427 +6004,427 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>73628</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>104590</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>112519</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>91752</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>77027</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>90242</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>106478</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>100814</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>74006</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>109121</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>100814</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>580719</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>86466</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>75139</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>201250</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>81558</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>74383</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>77027</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>123847</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>877876</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>82690</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>91374</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>148389</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>126112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>87599</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>75516</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>107611</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>80047</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>83446</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>84200</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>300177</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>241275</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>124224</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>367386</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>123847</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>87599</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>10</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>70230</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>95150</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>146502</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>83445</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>1</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>77782</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>67587</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>104212</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>153676</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>2</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>44932</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>49841</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>63433</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>123847</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>3</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>48330</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>68342</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>80047</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>95151</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>4</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>66076</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>52862</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>77026</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>92507</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>5</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>58903</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>282808</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>48331</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>125735</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>6</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>0</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>45309</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>45688</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>46820</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>84578</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>7</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>0</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>46820</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>47953</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>45310</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>131398</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>8</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>0</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>44932</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>62301</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>74383</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>109499</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>9</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>52106</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>46820</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>46064</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>86466</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>10</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>0</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>45687</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>44555</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>49841</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>76271</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -5872,10 +5872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,6 +5922,22 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <f>AVERAGE(C36:C45)</f>
+        <v>44441.3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:F3" si="0">AVERAGE(D36:D45)</f>
+        <v>35115.1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>38286.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>67247.199999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5930,6 +5946,22 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <f>AVERAGE(C47:C56)</f>
+        <v>18274.900000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:F4" si="1">AVERAGE(D47:D56)</f>
+        <v>19407.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>19294.400000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>42893.2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5967,15 +5999,15 @@
         <v>53087.7</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:F6" si="0">AVERAGE(D25:D34)</f>
+        <f t="shared" ref="D6:F6" si="2">AVERAGE(D25:D34)</f>
         <v>76875.7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63546.7</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107912.8</v>
       </c>
     </row>
@@ -6424,7 +6456,427 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>33227</v>
+      </c>
+      <c r="D36" s="7">
+        <v>46443</v>
+      </c>
+      <c r="E36" s="7">
+        <v>56637</v>
+      </c>
+      <c r="F36" s="8">
+        <v>56637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>32472</v>
+      </c>
+      <c r="D37" s="7">
+        <v>36247</v>
+      </c>
+      <c r="E37" s="7">
+        <v>33604</v>
+      </c>
+      <c r="F37" s="8">
+        <v>56259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>84956</v>
+      </c>
+      <c r="D38" s="7">
+        <v>33605</v>
+      </c>
+      <c r="E38" s="7">
+        <v>46820</v>
+      </c>
+      <c r="F38" s="8">
+        <v>56259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>32472</v>
+      </c>
+      <c r="D39" s="7">
+        <v>33228</v>
+      </c>
+      <c r="E39" s="7">
+        <v>38513</v>
+      </c>
+      <c r="F39" s="8">
+        <v>75517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>32095</v>
+      </c>
+      <c r="D40" s="7">
+        <v>33982</v>
+      </c>
+      <c r="E40" s="7">
+        <v>33605</v>
+      </c>
+      <c r="F40" s="8">
+        <v>72118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>32472</v>
+      </c>
+      <c r="D41" s="7">
+        <v>33982</v>
+      </c>
+      <c r="E41" s="7">
+        <v>33227</v>
+      </c>
+      <c r="F41" s="8">
+        <v>78537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>33227</v>
+      </c>
+      <c r="D42" s="7">
+        <v>33605</v>
+      </c>
+      <c r="E42" s="7">
+        <v>35870</v>
+      </c>
+      <c r="F42" s="8">
+        <v>73629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>66832</v>
+      </c>
+      <c r="D43" s="7">
+        <v>33227</v>
+      </c>
+      <c r="E43" s="7">
+        <v>34360</v>
+      </c>
+      <c r="F43" s="8">
+        <v>75138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>9</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>61545</v>
+      </c>
+      <c r="D44" s="7">
+        <v>33227</v>
+      </c>
+      <c r="E44" s="7">
+        <v>36248</v>
+      </c>
+      <c r="F44" s="8">
+        <v>56260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>10</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>35115</v>
+      </c>
+      <c r="D45" s="10">
+        <v>33605</v>
+      </c>
+      <c r="E45" s="10">
+        <v>33982</v>
+      </c>
+      <c r="F45" s="11">
+        <v>72118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>15858</v>
+      </c>
+      <c r="D47" s="7">
+        <v>16614</v>
+      </c>
+      <c r="E47" s="7">
+        <v>17369</v>
+      </c>
+      <c r="F47" s="8">
+        <v>39646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>17369</v>
+      </c>
+      <c r="D48" s="7">
+        <v>16614</v>
+      </c>
+      <c r="E48" s="7">
+        <v>31717</v>
+      </c>
+      <c r="F48" s="8">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>15859</v>
+      </c>
+      <c r="D49" s="7">
+        <v>30962</v>
+      </c>
+      <c r="E49" s="7">
+        <v>17369</v>
+      </c>
+      <c r="F49" s="8">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>16236</v>
+      </c>
+      <c r="D50" s="7">
+        <v>27940</v>
+      </c>
+      <c r="E50" s="7">
+        <v>16991</v>
+      </c>
+      <c r="F50" s="8">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>17369</v>
+      </c>
+      <c r="D51" s="7">
+        <v>16991</v>
+      </c>
+      <c r="E51" s="7">
+        <v>17368</v>
+      </c>
+      <c r="F51" s="8">
+        <v>54749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>16613</v>
+      </c>
+      <c r="D52" s="7">
+        <v>16614</v>
+      </c>
+      <c r="E52" s="7">
+        <v>17368</v>
+      </c>
+      <c r="F52" s="8">
+        <v>41156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>20011</v>
+      </c>
+      <c r="D53" s="7">
+        <v>17746</v>
+      </c>
+      <c r="E53" s="7">
+        <v>18879</v>
+      </c>
+      <c r="F53" s="8">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>17369</v>
+      </c>
+      <c r="D54" s="7">
+        <v>17369</v>
+      </c>
+      <c r="E54" s="7">
+        <v>20767</v>
+      </c>
+      <c r="F54" s="8">
+        <v>38890</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>9</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>16613</v>
+      </c>
+      <c r="D55" s="7">
+        <v>16614</v>
+      </c>
+      <c r="E55" s="7">
+        <v>17369</v>
+      </c>
+      <c r="F55" s="8">
+        <v>39269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>10</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0</v>
+      </c>
+      <c r="C56" s="10">
+        <v>29452</v>
+      </c>
+      <c r="D56" s="10">
+        <v>16614</v>
+      </c>
+      <c r="E56" s="10">
+        <v>17747</v>
+      </c>
+      <c r="F56" s="11">
+        <v>48708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -5875,7 +5875,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,19 +5972,19 @@
       </c>
       <c r="C5">
         <f>AVERAGE(C14:C23)</f>
-        <v>83369.899999999994</v>
+        <v>49010.1</v>
       </c>
       <c r="D5">
         <f>AVERAGE(D14:D23)</f>
-        <v>116974.5</v>
+        <v>43686.1</v>
       </c>
       <c r="E5">
         <f>AVERAGE(E14:E23)</f>
-        <v>147143.4</v>
+        <v>59091.6</v>
       </c>
       <c r="F5">
         <f>AVERAGE(F14:F23)</f>
-        <v>235119.7</v>
+        <v>98246.399999999994</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5995,20 +5995,20 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>AVERAGE(D25:D34)</f>
+        <v>16613.400000000001</v>
+      </c>
+      <c r="D6">
         <f>AVERAGE(C25:C34)</f>
-        <v>53087.7</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:F6" si="2">AVERAGE(D25:D34)</f>
-        <v>76875.7</v>
+        <v>28922.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>63546.7</v>
+        <f t="shared" ref="D6:F6" si="2">AVERAGE(E25:E34)</f>
+        <v>50482.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>107912.8</v>
+        <v>94130.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,16 +6053,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>73628</v>
+        <v>47575</v>
       </c>
       <c r="D14" s="7">
-        <v>104590</v>
+        <v>34360</v>
       </c>
       <c r="E14" s="7">
-        <v>112519</v>
+        <v>37003</v>
       </c>
       <c r="F14" s="8">
-        <v>91752</v>
+        <v>125734</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6073,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>77027</v>
+        <v>36626</v>
       </c>
       <c r="D15" s="7">
-        <v>90242</v>
+        <v>41912</v>
       </c>
       <c r="E15" s="7">
-        <v>106478</v>
+        <v>128378</v>
       </c>
       <c r="F15" s="8">
-        <v>100814</v>
+        <v>80424</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,16 +6093,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>74006</v>
+        <v>55505</v>
       </c>
       <c r="D16" s="7">
-        <v>109121</v>
+        <v>89109</v>
       </c>
       <c r="E16" s="7">
-        <v>100814</v>
+        <v>45310</v>
       </c>
       <c r="F16" s="8">
-        <v>580719</v>
+        <v>107610</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6113,16 +6113,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>86466</v>
+        <v>44554</v>
       </c>
       <c r="D17" s="7">
-        <v>75139</v>
+        <v>32850</v>
       </c>
       <c r="E17" s="7">
-        <v>201250</v>
+        <v>36248</v>
       </c>
       <c r="F17" s="8">
-        <v>81558</v>
+        <v>114407</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6133,16 +6133,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <v>74383</v>
+        <v>37381</v>
       </c>
       <c r="D18" s="7">
-        <v>77027</v>
+        <v>38513</v>
       </c>
       <c r="E18" s="7">
-        <v>123847</v>
+        <v>36626</v>
       </c>
       <c r="F18" s="8">
-        <v>877876</v>
+        <v>62301</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6153,16 +6153,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>82690</v>
+        <v>35870</v>
       </c>
       <c r="D19" s="7">
-        <v>91374</v>
+        <v>44933</v>
       </c>
       <c r="E19" s="7">
-        <v>148389</v>
+        <v>138195</v>
       </c>
       <c r="F19" s="8">
-        <v>126112</v>
+        <v>65700</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6173,16 +6173,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>87599</v>
+        <v>96283</v>
       </c>
       <c r="D20" s="7">
-        <v>75516</v>
+        <v>36625</v>
       </c>
       <c r="E20" s="7">
-        <v>107611</v>
+        <v>37380</v>
       </c>
       <c r="F20" s="8">
-        <v>80047</v>
+        <v>89109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,16 +6193,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="7">
-        <v>83446</v>
+        <v>36248</v>
       </c>
       <c r="D21" s="7">
-        <v>84200</v>
+        <v>33227</v>
       </c>
       <c r="E21" s="7">
-        <v>300177</v>
+        <v>33982</v>
       </c>
       <c r="F21" s="8">
-        <v>241275</v>
+        <v>146878</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6213,16 +6213,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="7">
-        <v>124224</v>
+        <v>66454</v>
       </c>
       <c r="D22" s="7">
-        <v>367386</v>
+        <v>33604</v>
       </c>
       <c r="E22" s="7">
-        <v>123847</v>
+        <v>43800</v>
       </c>
       <c r="F22" s="8">
-        <v>87599</v>
+        <v>80425</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6233,16 +6233,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="10">
-        <v>70230</v>
+        <v>33605</v>
       </c>
       <c r="D23" s="10">
-        <v>95150</v>
+        <v>51728</v>
       </c>
       <c r="E23" s="10">
-        <v>146502</v>
+        <v>53994</v>
       </c>
       <c r="F23" s="11">
-        <v>83445</v>
+        <v>109876</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,16 +6263,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>77782</v>
+        <v>20767</v>
       </c>
       <c r="D25" s="7">
-        <v>67587</v>
+        <v>15103</v>
       </c>
       <c r="E25" s="7">
-        <v>104212</v>
+        <v>15103</v>
       </c>
       <c r="F25" s="8">
-        <v>153676</v>
+        <v>123469</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,16 +6283,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>44932</v>
+        <v>30583</v>
       </c>
       <c r="D26" s="7">
-        <v>49841</v>
+        <v>15103</v>
       </c>
       <c r="E26" s="7">
-        <v>63433</v>
+        <v>30962</v>
       </c>
       <c r="F26" s="8">
-        <v>123847</v>
+        <v>99303</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>48330</v>
+        <v>30962</v>
       </c>
       <c r="D27" s="7">
-        <v>68342</v>
+        <v>16236</v>
       </c>
       <c r="E27" s="7">
-        <v>80047</v>
+        <v>13971</v>
       </c>
       <c r="F27" s="8">
-        <v>95151</v>
+        <v>41156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,16 +6323,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>66076</v>
+        <v>31339</v>
       </c>
       <c r="D28" s="7">
-        <v>52862</v>
+        <v>13593</v>
       </c>
       <c r="E28" s="7">
-        <v>77026</v>
+        <v>14348</v>
       </c>
       <c r="F28" s="8">
-        <v>92507</v>
+        <v>65321</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6343,16 +6343,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>58903</v>
+        <v>31716</v>
       </c>
       <c r="D29" s="7">
-        <v>282808</v>
+        <v>15858</v>
       </c>
       <c r="E29" s="7">
-        <v>48331</v>
+        <v>31716</v>
       </c>
       <c r="F29" s="8">
-        <v>125735</v>
+        <v>76649</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,16 +6363,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>45309</v>
+        <v>26809</v>
       </c>
       <c r="D30" s="7">
-        <v>45688</v>
+        <v>13593</v>
       </c>
       <c r="E30" s="7">
-        <v>46820</v>
+        <v>301309</v>
       </c>
       <c r="F30" s="8">
-        <v>84578</v>
+        <v>55504</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6383,16 +6383,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>46820</v>
+        <v>40401</v>
       </c>
       <c r="D31" s="7">
-        <v>47953</v>
+        <v>14348</v>
       </c>
       <c r="E31" s="7">
-        <v>45310</v>
+        <v>15103</v>
       </c>
       <c r="F31" s="8">
-        <v>131398</v>
+        <v>93640</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>44932</v>
+        <v>31339</v>
       </c>
       <c r="D32" s="7">
-        <v>62301</v>
+        <v>33227</v>
       </c>
       <c r="E32" s="7">
-        <v>74383</v>
+        <v>17368</v>
       </c>
       <c r="F32" s="8">
-        <v>109499</v>
+        <v>48331</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,16 +6423,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>52106</v>
+        <v>29829</v>
       </c>
       <c r="D33" s="7">
-        <v>46820</v>
+        <v>14725</v>
       </c>
       <c r="E33" s="7">
-        <v>46064</v>
+        <v>32850</v>
       </c>
       <c r="F33" s="8">
-        <v>86466</v>
+        <v>75139</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6443,16 +6443,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="10">
-        <v>45687</v>
+        <v>15481</v>
       </c>
       <c r="D34" s="10">
-        <v>44555</v>
+        <v>14348</v>
       </c>
       <c r="E34" s="10">
-        <v>49841</v>
+        <v>32095</v>
       </c>
       <c r="F34" s="11">
-        <v>76271</v>
+        <v>262796</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -164,6 +164,12 @@
   <si>
     <t>Named Pipe (Java Write)</t>
   </si>
+  <si>
+    <t>Anon Pipes</t>
+  </si>
+  <si>
+    <t>Anonymous Pipes</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +233,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +378,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5872,10 +5913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5916,112 +5957,128 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3">
-        <f>AVERAGE(C36:C45)</f>
+      <c r="C3" s="18">
+        <f>AVERAGE(C37:C46)</f>
         <v>44441.3</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:F3" si="0">AVERAGE(D36:D45)</f>
+      <c r="D3" s="18">
+        <f t="shared" ref="D3:F3" si="0">AVERAGE(D37:D46)</f>
         <v>35115.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="18">
         <f t="shared" si="0"/>
         <v>38286.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="18">
         <f t="shared" si="0"/>
         <v>67247.199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4">
-        <f>AVERAGE(C47:C56)</f>
+      <c r="C4" s="17">
+        <f>AVERAGE(C48:C57)</f>
         <v>18274.900000000001</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:F4" si="1">AVERAGE(D47:D56)</f>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:F4" si="1">AVERAGE(D48:D57)</f>
         <v>19407.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <f t="shared" si="1"/>
         <v>19294.400000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <f t="shared" si="1"/>
         <v>42893.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>0</v>
       </c>
-      <c r="C5">
-        <f>AVERAGE(C14:C23)</f>
+      <c r="C5" s="19">
+        <f>AVERAGE(C15:C24)</f>
         <v>49010.1</v>
       </c>
-      <c r="D5">
-        <f>AVERAGE(D14:D23)</f>
+      <c r="D5" s="19">
+        <f>AVERAGE(D15:D24)</f>
         <v>43686.1</v>
       </c>
-      <c r="E5">
-        <f>AVERAGE(E14:E23)</f>
+      <c r="E5" s="19">
+        <f>AVERAGE(E15:E24)</f>
         <v>59091.6</v>
       </c>
-      <c r="F5">
-        <f>AVERAGE(F14:F23)</f>
+      <c r="F5" s="19">
+        <f>AVERAGE(F15:F24)</f>
         <v>98246.399999999994</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>0</v>
       </c>
-      <c r="C6">
-        <f>AVERAGE(D25:D34)</f>
+      <c r="C6" s="20">
+        <f>AVERAGE(D26:D35)</f>
         <v>16613.400000000001</v>
       </c>
-      <c r="D6">
-        <f>AVERAGE(C25:C34)</f>
+      <c r="D6" s="20">
+        <f>AVERAGE(C26:C35)</f>
         <v>28922.6</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="D6:F6" si="2">AVERAGE(E25:E34)</f>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:F6" si="2">AVERAGE(E26:E35)</f>
         <v>50482.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="20">
         <f t="shared" si="2"/>
         <v>94130.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16">
         <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <f>AVERAGE(C59:C68)</f>
+        <v>33264.800000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:F7" si="3">AVERAGE(D59:D68)</f>
+        <v>33869</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="3"/>
+        <v>35530.6</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="3"/>
+        <v>70078.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6029,497 +6086,485 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>47575</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34360</v>
-      </c>
-      <c r="E14" s="7">
-        <v>37003</v>
-      </c>
-      <c r="F14" s="8">
-        <v>125734</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>36626</v>
+        <v>47575</v>
       </c>
       <c r="D15" s="7">
-        <v>41912</v>
+        <v>34360</v>
       </c>
       <c r="E15" s="7">
-        <v>128378</v>
+        <v>37003</v>
       </c>
       <c r="F15" s="8">
-        <v>80424</v>
+        <v>125734</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>55505</v>
+        <v>36626</v>
       </c>
       <c r="D16" s="7">
-        <v>89109</v>
+        <v>41912</v>
       </c>
       <c r="E16" s="7">
-        <v>45310</v>
+        <v>128378</v>
       </c>
       <c r="F16" s="8">
-        <v>107610</v>
+        <v>80424</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>44554</v>
+        <v>55505</v>
       </c>
       <c r="D17" s="7">
-        <v>32850</v>
+        <v>89109</v>
       </c>
       <c r="E17" s="7">
-        <v>36248</v>
+        <v>45310</v>
       </c>
       <c r="F17" s="8">
-        <v>114407</v>
+        <v>107610</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <v>37381</v>
+        <v>44554</v>
       </c>
       <c r="D18" s="7">
-        <v>38513</v>
+        <v>32850</v>
       </c>
       <c r="E18" s="7">
-        <v>36626</v>
+        <v>36248</v>
       </c>
       <c r="F18" s="8">
-        <v>62301</v>
+        <v>114407</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>35870</v>
+        <v>37381</v>
       </c>
       <c r="D19" s="7">
-        <v>44933</v>
+        <v>38513</v>
       </c>
       <c r="E19" s="7">
-        <v>138195</v>
+        <v>36626</v>
       </c>
       <c r="F19" s="8">
-        <v>65700</v>
+        <v>62301</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>96283</v>
+        <v>35870</v>
       </c>
       <c r="D20" s="7">
-        <v>36625</v>
+        <v>44933</v>
       </c>
       <c r="E20" s="7">
-        <v>37380</v>
+        <v>138195</v>
       </c>
       <c r="F20" s="8">
-        <v>89109</v>
+        <v>65700</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
       </c>
       <c r="C21" s="7">
-        <v>36248</v>
+        <v>96283</v>
       </c>
       <c r="D21" s="7">
-        <v>33227</v>
+        <v>36625</v>
       </c>
       <c r="E21" s="7">
-        <v>33982</v>
+        <v>37380</v>
       </c>
       <c r="F21" s="8">
-        <v>146878</v>
+        <v>89109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
       </c>
       <c r="C22" s="7">
+        <v>36248</v>
+      </c>
+      <c r="D22" s="7">
+        <v>33227</v>
+      </c>
+      <c r="E22" s="7">
+        <v>33982</v>
+      </c>
+      <c r="F22" s="8">
+        <v>146878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
         <v>66454</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>33604</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>43800</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>80425</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>10</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <v>33605</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>51728</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>53994</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>109876</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20767</v>
-      </c>
-      <c r="D25" s="7">
-        <v>15103</v>
-      </c>
-      <c r="E25" s="7">
-        <v>15103</v>
-      </c>
-      <c r="F25" s="8">
-        <v>123469</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30583</v>
+        <v>20767</v>
       </c>
       <c r="D26" s="7">
         <v>15103</v>
       </c>
       <c r="E26" s="7">
-        <v>30962</v>
+        <v>15103</v>
       </c>
       <c r="F26" s="8">
-        <v>99303</v>
+        <v>123469</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
       </c>
       <c r="C27" s="7">
+        <v>30583</v>
+      </c>
+      <c r="D27" s="7">
+        <v>15103</v>
+      </c>
+      <c r="E27" s="7">
         <v>30962</v>
       </c>
-      <c r="D27" s="7">
-        <v>16236</v>
-      </c>
-      <c r="E27" s="7">
-        <v>13971</v>
-      </c>
       <c r="F27" s="8">
-        <v>41156</v>
+        <v>99303</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>31339</v>
+        <v>30962</v>
       </c>
       <c r="D28" s="7">
-        <v>13593</v>
+        <v>16236</v>
       </c>
       <c r="E28" s="7">
-        <v>14348</v>
+        <v>13971</v>
       </c>
       <c r="F28" s="8">
-        <v>65321</v>
+        <v>41156</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>31716</v>
+        <v>31339</v>
       </c>
       <c r="D29" s="7">
-        <v>15858</v>
+        <v>13593</v>
       </c>
       <c r="E29" s="7">
-        <v>31716</v>
+        <v>14348</v>
       </c>
       <c r="F29" s="8">
-        <v>76649</v>
+        <v>65321</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>26809</v>
+        <v>31716</v>
       </c>
       <c r="D30" s="7">
-        <v>13593</v>
+        <v>15858</v>
       </c>
       <c r="E30" s="7">
-        <v>301309</v>
+        <v>31716</v>
       </c>
       <c r="F30" s="8">
-        <v>55504</v>
+        <v>76649</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>40401</v>
+        <v>26809</v>
       </c>
       <c r="D31" s="7">
-        <v>14348</v>
+        <v>13593</v>
       </c>
       <c r="E31" s="7">
-        <v>15103</v>
+        <v>301309</v>
       </c>
       <c r="F31" s="8">
-        <v>93640</v>
+        <v>55504</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>31339</v>
+        <v>40401</v>
       </c>
       <c r="D32" s="7">
-        <v>33227</v>
+        <v>14348</v>
       </c>
       <c r="E32" s="7">
-        <v>17368</v>
+        <v>15103</v>
       </c>
       <c r="F32" s="8">
-        <v>48331</v>
+        <v>93640</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
       </c>
       <c r="C33" s="7">
+        <v>31339</v>
+      </c>
+      <c r="D33" s="7">
+        <v>33227</v>
+      </c>
+      <c r="E33" s="7">
+        <v>17368</v>
+      </c>
+      <c r="F33" s="8">
+        <v>48331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
         <v>29829</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>14725</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>32850</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>75139</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>10</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B35" s="10">
         <v>0</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C35" s="10">
         <v>15481</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>14348</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>32095</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>262796</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>1</v>
-      </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>33227</v>
-      </c>
-      <c r="D36" s="7">
-        <v>46443</v>
-      </c>
-      <c r="E36" s="7">
-        <v>56637</v>
-      </c>
-      <c r="F36" s="8">
-        <v>56637</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>32472</v>
+        <v>33227</v>
       </c>
       <c r="D37" s="7">
-        <v>36247</v>
+        <v>46443</v>
       </c>
       <c r="E37" s="7">
-        <v>33604</v>
+        <v>56637</v>
       </c>
       <c r="F37" s="8">
-        <v>56259</v>
+        <v>56637</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>84956</v>
+        <v>32472</v>
       </c>
       <c r="D38" s="7">
-        <v>33605</v>
+        <v>36247</v>
       </c>
       <c r="E38" s="7">
-        <v>46820</v>
+        <v>33604</v>
       </c>
       <c r="F38" s="8">
         <v>56259</v>
@@ -6527,356 +6572,581 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>32472</v>
+        <v>84956</v>
       </c>
       <c r="D39" s="7">
-        <v>33228</v>
+        <v>33605</v>
       </c>
       <c r="E39" s="7">
-        <v>38513</v>
+        <v>46820</v>
       </c>
       <c r="F39" s="8">
-        <v>75517</v>
+        <v>56259</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>32095</v>
+        <v>32472</v>
       </c>
       <c r="D40" s="7">
-        <v>33982</v>
+        <v>33228</v>
       </c>
       <c r="E40" s="7">
-        <v>33605</v>
+        <v>38513</v>
       </c>
       <c r="F40" s="8">
-        <v>72118</v>
+        <v>75517</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>32472</v>
+        <v>32095</v>
       </c>
       <c r="D41" s="7">
         <v>33982</v>
       </c>
       <c r="E41" s="7">
-        <v>33227</v>
+        <v>33605</v>
       </c>
       <c r="F41" s="8">
-        <v>78537</v>
+        <v>72118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
       </c>
       <c r="C42" s="7">
+        <v>32472</v>
+      </c>
+      <c r="D42" s="7">
+        <v>33982</v>
+      </c>
+      <c r="E42" s="7">
         <v>33227</v>
       </c>
-      <c r="D42" s="7">
-        <v>33605</v>
-      </c>
-      <c r="E42" s="7">
-        <v>35870</v>
-      </c>
       <c r="F42" s="8">
-        <v>73629</v>
+        <v>78537</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
       </c>
       <c r="C43" s="7">
-        <v>66832</v>
+        <v>33227</v>
       </c>
       <c r="D43" s="7">
-        <v>33227</v>
+        <v>33605</v>
       </c>
       <c r="E43" s="7">
-        <v>34360</v>
+        <v>35870</v>
       </c>
       <c r="F43" s="8">
-        <v>75138</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="7">
         <v>0</v>
       </c>
       <c r="C44" s="7">
-        <v>61545</v>
+        <v>66832</v>
       </c>
       <c r="D44" s="7">
         <v>33227</v>
       </c>
       <c r="E44" s="7">
+        <v>34360</v>
+      </c>
+      <c r="F44" s="8">
+        <v>75138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>9</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>61545</v>
+      </c>
+      <c r="D45" s="7">
+        <v>33227</v>
+      </c>
+      <c r="E45" s="7">
         <v>36248</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>56260</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>10</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B46" s="10">
         <v>0</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C46" s="10">
         <v>35115</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>33605</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>33982</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>72118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0</v>
-      </c>
-      <c r="C47" s="7">
-        <v>15858</v>
-      </c>
-      <c r="D47" s="7">
-        <v>16614</v>
-      </c>
-      <c r="E47" s="7">
-        <v>17369</v>
-      </c>
-      <c r="F47" s="8">
-        <v>39646</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
       </c>
       <c r="C48" s="7">
-        <v>17369</v>
+        <v>15858</v>
       </c>
       <c r="D48" s="7">
         <v>16614</v>
       </c>
       <c r="E48" s="7">
-        <v>31717</v>
+        <v>17369</v>
       </c>
       <c r="F48" s="8">
-        <v>40401</v>
+        <v>39646</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
       </c>
       <c r="C49" s="7">
-        <v>15859</v>
+        <v>17369</v>
       </c>
       <c r="D49" s="7">
-        <v>30962</v>
+        <v>16614</v>
       </c>
       <c r="E49" s="7">
-        <v>17369</v>
+        <v>31717</v>
       </c>
       <c r="F49" s="8">
-        <v>40024</v>
+        <v>40401</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>16236</v>
+        <v>15859</v>
       </c>
       <c r="D50" s="7">
-        <v>27940</v>
+        <v>30962</v>
       </c>
       <c r="E50" s="7">
-        <v>16991</v>
+        <v>17369</v>
       </c>
       <c r="F50" s="8">
-        <v>46065</v>
+        <v>40024</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="7">
         <v>0</v>
       </c>
       <c r="C51" s="7">
-        <v>17369</v>
+        <v>16236</v>
       </c>
       <c r="D51" s="7">
+        <v>27940</v>
+      </c>
+      <c r="E51" s="7">
         <v>16991</v>
       </c>
-      <c r="E51" s="7">
-        <v>17368</v>
-      </c>
       <c r="F51" s="8">
-        <v>54749</v>
+        <v>46065</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="7">
         <v>0</v>
       </c>
       <c r="C52" s="7">
-        <v>16613</v>
+        <v>17369</v>
       </c>
       <c r="D52" s="7">
-        <v>16614</v>
+        <v>16991</v>
       </c>
       <c r="E52" s="7">
         <v>17368</v>
       </c>
       <c r="F52" s="8">
-        <v>41156</v>
+        <v>54749</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="7">
         <v>0</v>
       </c>
       <c r="C53" s="7">
-        <v>20011</v>
+        <v>16613</v>
       </c>
       <c r="D53" s="7">
-        <v>17746</v>
+        <v>16614</v>
       </c>
       <c r="E53" s="7">
-        <v>18879</v>
+        <v>17368</v>
       </c>
       <c r="F53" s="8">
-        <v>40024</v>
+        <v>41156</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="7">
         <v>0</v>
       </c>
       <c r="C54" s="7">
-        <v>17369</v>
+        <v>20011</v>
       </c>
       <c r="D54" s="7">
-        <v>17369</v>
+        <v>17746</v>
       </c>
       <c r="E54" s="7">
-        <v>20767</v>
+        <v>18879</v>
       </c>
       <c r="F54" s="8">
-        <v>38890</v>
+        <v>40024</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
       </c>
       <c r="C55" s="7">
+        <v>17369</v>
+      </c>
+      <c r="D55" s="7">
+        <v>17369</v>
+      </c>
+      <c r="E55" s="7">
+        <v>20767</v>
+      </c>
+      <c r="F55" s="8">
+        <v>38890</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
         <v>16613</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>16614</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>17369</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>39269</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>10</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B57" s="10">
         <v>0</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C57" s="10">
         <v>29452</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>16614</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>17747</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>48708</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>38136</v>
+      </c>
+      <c r="D59">
+        <v>49085</v>
+      </c>
+      <c r="E59">
+        <v>53995</v>
+      </c>
+      <c r="F59">
+        <v>60035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>32094</v>
+      </c>
+      <c r="D60">
+        <v>32094</v>
+      </c>
+      <c r="E60">
+        <v>33228</v>
+      </c>
+      <c r="F60">
+        <v>53616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>32095</v>
+      </c>
+      <c r="D61">
+        <v>32095</v>
+      </c>
+      <c r="E61">
+        <v>33604</v>
+      </c>
+      <c r="F61">
+        <v>123468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>28697</v>
+      </c>
+      <c r="D62">
+        <v>31340</v>
+      </c>
+      <c r="E62">
+        <v>33605</v>
+      </c>
+      <c r="F62">
+        <v>52106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>33982</v>
+      </c>
+      <c r="D63">
+        <v>32472</v>
+      </c>
+      <c r="E63">
+        <v>31339</v>
+      </c>
+      <c r="F63">
+        <v>54371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>33604</v>
+      </c>
+      <c r="D64">
+        <v>34359</v>
+      </c>
+      <c r="E64">
+        <v>33228</v>
+      </c>
+      <c r="F64">
+        <v>89109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>31339</v>
+      </c>
+      <c r="D65">
+        <v>32472</v>
+      </c>
+      <c r="E65">
+        <v>32849</v>
+      </c>
+      <c r="F65">
+        <v>61923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>38135</v>
+      </c>
+      <c r="D66">
+        <v>30962</v>
+      </c>
+      <c r="E66">
+        <v>32472</v>
+      </c>
+      <c r="F66">
+        <v>85333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>32850</v>
+      </c>
+      <c r="D67">
+        <v>33227</v>
+      </c>
+      <c r="E67">
+        <v>35493</v>
+      </c>
+      <c r="F67">
+        <v>51729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>31716</v>
+      </c>
+      <c r="D68">
+        <v>30584</v>
+      </c>
+      <c r="E68">
+        <v>35493</v>
+      </c>
+      <c r="F68">
+        <v>69097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -170,6 +170,15 @@
   <si>
     <t>Anonymous Pipes</t>
   </si>
+  <si>
+    <t>Max Time</t>
+  </si>
+  <si>
+    <t>Average Across All Sizes</t>
+  </si>
+  <si>
+    <t>File Mapping (shm)</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +272,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,14 +402,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5131,26 +5161,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5506,16 +5536,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5707,7 +5737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -5913,22 +5943,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5947,160 +5977,262 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
         <f>AVERAGE(C37:C46)</f>
         <v>44441.3</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <f t="shared" ref="D3:F3" si="0">AVERAGE(D37:D46)</f>
         <v>35115.1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>38286.6</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
         <v>67247.199999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G10" si="1">MAX(C3:F3)</f>
+        <v>67247.199999999997</v>
+      </c>
+      <c r="H3" s="17">
+        <f>AVERAGE(C3:F3)</f>
+        <v>46272.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
         <f>AVERAGE(C48:C57)</f>
         <v>18274.900000000001</v>
       </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:F4" si="1">AVERAGE(D48:D57)</f>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:F4" si="2">AVERAGE(D48:D57)</f>
         <v>19407.8</v>
       </c>
-      <c r="E4" s="17">
-        <f t="shared" si="1"/>
+      <c r="E4" s="16">
+        <f t="shared" si="2"/>
         <v>19294.400000000001</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
+        <f t="shared" si="2"/>
+        <v>42893.2</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" si="1"/>
         <v>42893.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H10" si="3">AVERAGE(C4:F4)</f>
+        <v>24967.574999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
         <f>AVERAGE(C15:C24)</f>
         <v>49010.1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>AVERAGE(D15:D24)</f>
         <v>43686.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f>AVERAGE(E15:E24)</f>
         <v>59091.6</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>AVERAGE(F15:F24)</f>
         <v>98246.399999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>98246.399999999994</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>62508.549999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
         <f>AVERAGE(D26:D35)</f>
         <v>16613.400000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>AVERAGE(C26:C35)</f>
         <v>28922.6</v>
       </c>
-      <c r="E6" s="20">
-        <f t="shared" ref="E6:F6" si="2">AVERAGE(E26:E35)</f>
+      <c r="E6" s="19">
+        <f t="shared" ref="E6:F6" si="4">AVERAGE(E26:E35)</f>
         <v>50482.5</v>
       </c>
-      <c r="F6" s="20">
-        <f t="shared" si="2"/>
+      <c r="F6" s="19">
+        <f t="shared" si="4"/>
         <v>94130.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>94130.8</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>47537.324999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
         <f>AVERAGE(C59:C68)</f>
         <v>33264.800000000003</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:F7" si="3">AVERAGE(D59:D68)</f>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:F7" si="5">AVERAGE(D59:D68)</f>
         <v>33869</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
+        <f t="shared" si="5"/>
+        <v>35530.6</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="5"/>
+        <v>70078.7</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>70078.7</v>
+      </c>
+      <c r="H7" s="17">
         <f t="shared" si="3"/>
-        <v>35530.6</v>
-      </c>
-      <c r="F7" s="16">
+        <v>43185.774999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <f>AVERAGE(C81:C90)</f>
+        <v>1459463.8</v>
+      </c>
+      <c r="D8" s="23">
+        <f>AVERAGE(D81:D90)</f>
+        <v>1510701.8</v>
+      </c>
+      <c r="E8" s="23">
+        <f>AVERAGE(E81:E90)</f>
+        <v>1563827.5</v>
+      </c>
+      <c r="F8" s="23">
+        <f>AVERAGE(F81:F90)</f>
+        <v>1581158.1</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>1581158.1</v>
+      </c>
+      <c r="H8" s="17">
         <f t="shared" si="3"/>
-        <v>70078.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1528787.7999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <f>AVERAGE(C70:C79)</f>
+        <v>5162099.4000000004</v>
+      </c>
+      <c r="D10" s="20">
+        <f>AVERAGE(D70:D79)</f>
+        <v>5301728.7</v>
+      </c>
+      <c r="E10" s="20">
+        <f>AVERAGE(E70:E79)</f>
+        <v>5658769.5999999996</v>
+      </c>
+      <c r="F10" s="20">
+        <f>AVERAGE(F70:F79)</f>
+        <v>5863569.4000000004</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="1"/>
+        <v>5863569.4000000004</v>
+      </c>
+      <c r="H10" s="17">
+        <f>AVERAGE(C10:F10)</f>
+        <v>5496541.7750000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -6110,7 +6242,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -6130,7 +6262,7 @@
         <v>125734</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -6944,24 +7076,29 @@
       <c r="A58" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>1</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="7">
+        <v>0</v>
+      </c>
+      <c r="C59" s="7">
         <v>38136</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
         <v>49085</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>53995</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="8">
         <v>60035</v>
       </c>
     </row>
@@ -6969,19 +7106,19 @@
       <c r="A60" s="13">
         <v>2</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="7">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7">
         <v>32094</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="7">
         <v>32094</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>33228</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="8">
         <v>53616</v>
       </c>
     </row>
@@ -6989,19 +7126,19 @@
       <c r="A61" s="13">
         <v>3</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7">
         <v>32095</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="7">
         <v>32095</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>33604</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="8">
         <v>123468</v>
       </c>
     </row>
@@ -7009,19 +7146,19 @@
       <c r="A62" s="13">
         <v>4</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="7">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
         <v>28697</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="7">
         <v>31340</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="7">
         <v>33605</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="8">
         <v>52106</v>
       </c>
     </row>
@@ -7029,19 +7166,19 @@
       <c r="A63" s="13">
         <v>5</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7">
         <v>33982</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="7">
         <v>32472</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <v>31339</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="8">
         <v>54371</v>
       </c>
     </row>
@@ -7049,19 +7186,19 @@
       <c r="A64" s="13">
         <v>6</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="7">
+        <v>0</v>
+      </c>
+      <c r="C64" s="7">
         <v>33604</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="7">
         <v>34359</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="7">
         <v>33228</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="8">
         <v>89109</v>
       </c>
     </row>
@@ -7069,19 +7206,19 @@
       <c r="A65" s="13">
         <v>7</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="7">
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
         <v>31339</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="7">
         <v>32472</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="7">
         <v>32849</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="8">
         <v>61923</v>
       </c>
     </row>
@@ -7089,19 +7226,19 @@
       <c r="A66" s="13">
         <v>8</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="7">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
         <v>38135</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="7">
         <v>30962</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <v>32472</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="8">
         <v>85333</v>
       </c>
     </row>
@@ -7109,44 +7246,461 @@
       <c r="A67" s="13">
         <v>9</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7">
         <v>32850</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="7">
         <v>33227</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="7">
         <v>35493</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="8">
         <v>51729</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="14">
         <v>10</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="10">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10">
         <v>31716</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="10">
         <v>30584</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="10">
         <v>35493</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="11">
         <v>69097</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>5284247</v>
+      </c>
+      <c r="D70" s="7">
+        <v>5237804</v>
+      </c>
+      <c r="E70" s="7">
+        <v>5664849</v>
+      </c>
+      <c r="F70" s="8">
+        <v>6203279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>5489273</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5468884</v>
+      </c>
+      <c r="E71" s="7">
+        <v>5453025</v>
+      </c>
+      <c r="F71" s="8">
+        <v>5719975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>5245356</v>
+      </c>
+      <c r="D72" s="7">
+        <v>5979751</v>
+      </c>
+      <c r="E72" s="7">
+        <v>6921439</v>
+      </c>
+      <c r="F72" s="8">
+        <v>6332412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <v>5023339</v>
+      </c>
+      <c r="D73" s="7">
+        <v>5222323</v>
+      </c>
+      <c r="E73" s="7">
+        <v>6682052</v>
+      </c>
+      <c r="F73" s="8">
+        <v>5631999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0</v>
+      </c>
+      <c r="C74" s="7">
+        <v>5137368</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5036553</v>
+      </c>
+      <c r="E74" s="7">
+        <v>5061852</v>
+      </c>
+      <c r="F74" s="8">
+        <v>5114335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0</v>
+      </c>
+      <c r="C75" s="7">
+        <v>4908554</v>
+      </c>
+      <c r="D75" s="7">
+        <v>5085639</v>
+      </c>
+      <c r="E75" s="7">
+        <v>5008613</v>
+      </c>
+      <c r="F75" s="8">
+        <v>6727739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>7</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0</v>
+      </c>
+      <c r="C76" s="7">
+        <v>5209108</v>
+      </c>
+      <c r="D76" s="7">
+        <v>5167197</v>
+      </c>
+      <c r="E76" s="7">
+        <v>5698075</v>
+      </c>
+      <c r="F76" s="8">
+        <v>5029757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>8</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0</v>
+      </c>
+      <c r="C77" s="7">
+        <v>5393368</v>
+      </c>
+      <c r="D77" s="7">
+        <v>5263858</v>
+      </c>
+      <c r="E77" s="7">
+        <v>5186831</v>
+      </c>
+      <c r="F77" s="8">
+        <v>6051114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>9</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7">
+        <v>4904400</v>
+      </c>
+      <c r="D78" s="7">
+        <v>5265745</v>
+      </c>
+      <c r="E78" s="7">
+        <v>5306147</v>
+      </c>
+      <c r="F78" s="8">
+        <v>5119244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>10</v>
+      </c>
+      <c r="B79" s="10">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10">
+        <v>5025981</v>
+      </c>
+      <c r="D79" s="10">
+        <v>5289533</v>
+      </c>
+      <c r="E79" s="10">
+        <v>5604813</v>
+      </c>
+      <c r="F79" s="11">
+        <v>6705840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1404601</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1438206</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1534112</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1404224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>2</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1471056</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1363067</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1377038</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1544306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>3</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1525427</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1437451</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1515610</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1623598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>4</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1300389</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1346832</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1377038</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1432542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>5</v>
+      </c>
+      <c r="B85" s="7">
+        <v>0</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1395917</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1383457</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1404224</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1733852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>6</v>
+      </c>
+      <c r="B86" s="7">
+        <v>0</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1382701</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1361180</v>
+      </c>
+      <c r="E86" s="7">
+        <v>2254159</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1643988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>7</v>
+      </c>
+      <c r="B87" s="7">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1613404</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1548460</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1540909</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1669285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>8</v>
+      </c>
+      <c r="B88" s="7">
+        <v>0</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1490690</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1443115</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1403091</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1734230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1291705</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1531091</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1709687</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1448023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>10</v>
+      </c>
+      <c r="B90" s="10">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>1718748</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2254159</v>
+      </c>
+      <c r="E90" s="10">
+        <v>1522407</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1577533</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementation/TestPrograms/Results/timings.xlsx
+++ b/Implementation/TestPrograms/Results/timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 Message Sent" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t xml:space="preserve">Run </t>
   </si>
@@ -179,11 +179,29 @@
   <si>
     <t>File Mapping (shm)</t>
   </si>
+  <si>
+    <t>Fastest</t>
+  </si>
+  <si>
+    <t>Slowest</t>
+  </si>
+  <si>
+    <t>Mailslots Java Write</t>
+  </si>
+  <si>
+    <t>Average % Speedup</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,10 +433,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3116,6 +3144,2543 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>IPC Without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Sockets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Thesis!$A$2:$A$7,Thesis!$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Thesis!$C$2:$C$7,Thesis!$C$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>172365.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44441.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18274.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49010.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16613.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33264.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>440602.54545454547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C45-4432-9A02-829A74649CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Thesis!$A$2:$A$7,Thesis!$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Thesis!$D$2:$D$7,Thesis!$D$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>199438.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35115.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19407.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43686.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28922.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>466449.54545454547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C45-4432-9A02-829A74649CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Thesis!$A$2:$A$7,Thesis!$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Thesis!$E$2:$E$7,Thesis!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>197965.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38286.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19294.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59091.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50482.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35530.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>595170.18181818177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C45-4432-9A02-829A74649CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Thesis!$A$2:$A$7,Thesis!$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Thesis!$F$2:$F$7,Thesis!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>227152.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67247.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42893.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98246.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94130.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70078.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>652940.54545454541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C45-4432-9A02-829A74649CA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406243200"/>
+        <c:axId val="406244184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406243200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406244184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406244184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Time in ns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406243200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>IPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Performance (All Implemented Mechanisms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C31-4057-B34D-34EE5A8166A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>172365.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44441.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18274.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49010.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16613.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33264.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1459463.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440602.54545454547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5162099.4000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C31-4057-B34D-34EE5A8166A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>199438.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35115.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19407.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43686.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28922.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1510701.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466449.54545454547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5301728.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C31-4057-B34D-34EE5A8166A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>197965.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38286.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19294.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59091.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50482.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35530.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1563827.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>595170.18181818177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5658769.5999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C31-4057-B34D-34EE5A8166A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>File Mapping (shm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anonymous Pipes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Winsock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Data Copy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Sockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>227152.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67247.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42893.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98246.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94130.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70078.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1581158.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>652940.54545454541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5863569.4000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5C31-4057-B34D-34EE5A8166A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="497461248"/>
+        <c:axId val="497451080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497461248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497451080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497451080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="0"/>
+                  <a:t> in ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497461248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Mailslot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Performance </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34560411198600177"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mailslots (JNI Only)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44441.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35115.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38286.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67247.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2436-47AF-B374-52093B4AB354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mailslots (Java Write)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18274.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19407.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19294.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2436-47AF-B374-52093B4AB354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="418013456"/>
+        <c:axId val="418015424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="418013456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418015424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418015424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="0"/>
+                  <a:t> in ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418013456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Named Pipes Peformance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Named Pipes (JNI Only)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49010.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43686.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59091.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98246.399999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8D6-4EFD-A1D3-3A34746A448D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Thesis!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Named Pipes (Java Write)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Thesis!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 000 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40 000 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Thesis!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16613.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28922.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50482.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94130.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8D6-4EFD-A1D3-3A34746A448D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="410589232"/>
+        <c:axId val="410593824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410589232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410593824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410593824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="0"/>
+                  <a:t> in ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ZA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410589232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3236,6 +5801,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4243,6 +6968,2046 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4866,6 +9631,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611037</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5161,26 +10051,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5536,16 +10426,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5737,8 +10627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,22 +10833,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5983,16 +10875,47 @@
       <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="23">
+        <f>AVERAGE(C92:C101)</f>
+        <v>172365.8</v>
+      </c>
+      <c r="D2" s="23">
+        <f>AVERAGE(D92:D101)</f>
+        <v>199438.3</v>
+      </c>
+      <c r="E2" s="23">
+        <f>AVERAGE(E92:E101)</f>
+        <v>197965.8</v>
+      </c>
+      <c r="F2" s="23">
+        <f>AVERAGE(F92:F101)</f>
+        <v>227152.9</v>
+      </c>
+      <c r="G2" s="21">
+        <f t="shared" ref="G2:G10" si="0">MAX(C2:F2)</f>
+        <v>227152.9</v>
+      </c>
+      <c r="H2" s="17">
+        <f>AVERAGE(C2:F2)</f>
+        <v>199230.69999999998</v>
+      </c>
+      <c r="I2" s="26">
+        <f>H2/$H$10</f>
+        <v>3.6246554316418336E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -6004,27 +10927,31 @@
         <v>44441.3</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" ref="D3:F3" si="0">AVERAGE(D37:D46)</f>
+        <f t="shared" ref="D3:F3" si="1">AVERAGE(D37:D46)</f>
         <v>35115.1</v>
       </c>
       <c r="E3" s="17">
+        <f t="shared" si="1"/>
+        <v>38286.6</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="1"/>
+        <v>67247.199999999997</v>
+      </c>
+      <c r="G3" s="21">
         <f t="shared" si="0"/>
-        <v>38286.6</v>
-      </c>
-      <c r="F3" s="17">
-        <f t="shared" si="0"/>
-        <v>67247.199999999997</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G10" si="1">MAX(C3:F3)</f>
         <v>67247.199999999997</v>
       </c>
       <c r="H3" s="17">
         <f>AVERAGE(C3:F3)</f>
         <v>46272.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="26">
+        <f t="shared" ref="I3:I10" si="2">H3/$H$10</f>
+        <v>8.4184841840850011E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -6036,27 +10963,31 @@
         <v>18274.900000000001</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:F4" si="2">AVERAGE(D48:D57)</f>
+        <f t="shared" ref="D4:F4" si="3">AVERAGE(D48:D57)</f>
         <v>19407.8</v>
       </c>
       <c r="E4" s="16">
+        <f t="shared" si="3"/>
+        <v>19294.400000000001</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="3"/>
+        <v>42893.2</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>42893.2</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H9" si="4">AVERAGE(C4:F4)</f>
+        <v>24967.574999999997</v>
+      </c>
+      <c r="I4" s="26">
         <f t="shared" si="2"/>
-        <v>19294.400000000001</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" si="2"/>
-        <v>42893.2</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="1"/>
-        <v>42893.2</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" ref="H4:H10" si="3">AVERAGE(C4:F4)</f>
-        <v>24967.574999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.5424152170661881E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -6080,15 +11011,19 @@
         <v>98246.399999999994</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>98246.399999999994</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62508.549999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="26">
+        <f t="shared" si="2"/>
+        <v>1.1372341475563513E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
@@ -6104,23 +11039,27 @@
         <v>28922.6</v>
       </c>
       <c r="E6" s="19">
-        <f t="shared" ref="E6:F6" si="4">AVERAGE(E26:E35)</f>
+        <f t="shared" ref="E6:F6" si="5">AVERAGE(E26:E35)</f>
         <v>50482.5</v>
       </c>
       <c r="F6" s="19">
+        <f t="shared" si="5"/>
+        <v>94130.8</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>94130.8</v>
+      </c>
+      <c r="H6" s="17">
         <f t="shared" si="4"/>
-        <v>94130.8</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="1"/>
-        <v>94130.8</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
         <v>47537.324999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="26">
+        <f t="shared" si="2"/>
+        <v>8.6485879569249691E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
@@ -6132,75 +11071,106 @@
         <v>33264.800000000003</v>
       </c>
       <c r="D7" s="15">
-        <f t="shared" ref="D7:F7" si="5">AVERAGE(D59:D68)</f>
+        <f t="shared" ref="D7:F7" si="6">AVERAGE(D59:D68)</f>
         <v>33869</v>
       </c>
       <c r="E7" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35530.6</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70078.7</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70078.7</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43185.774999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="I7" s="26">
+        <f t="shared" si="2"/>
+        <v>7.8568992591710064E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f>AVERAGE(C81:C90)</f>
         <v>1459463.8</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <f>AVERAGE(D81:D90)</f>
         <v>1510701.8</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f>AVERAGE(E81:E90)</f>
         <v>1563827.5</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <f>AVERAGE(F81:F90)</f>
         <v>1581158.1</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" si="1"/>
+        <f>MAX(C8:F8)</f>
         <v>1581158.1</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1528787.7999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I8" s="26">
+        <f t="shared" si="2"/>
+        <v>0.27813630143837115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
+      <c r="C9" s="25">
+        <f>AVERAGE(C103:C113)</f>
+        <v>440602.54545454547</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" ref="D9:F9" si="7">AVERAGE(D103:D113)</f>
+        <v>466449.54545454547</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="7"/>
+        <v>595170.18181818177</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="7"/>
+        <v>652940.54545454541</v>
+      </c>
       <c r="G9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(C9:F9)</f>
+        <v>652940.54545454541</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="4"/>
+        <v>538790.70454545459</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="2"/>
+        <v>9.8023580389408491E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
@@ -6224,15 +11194,35 @@
         <v>5863569.4000000004</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5863569.4000000004</v>
       </c>
       <c r="H10" s="17">
         <f>AVERAGE(C10:F10)</f>
         <v>5496541.7750000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -6242,7 +11232,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -6262,7 +11252,7 @@
         <v>125734</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -7683,27 +12673,468 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="13">
         <v>10</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="7">
         <v>0</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="7">
         <v>1718748</v>
       </c>
       <c r="D90" s="7">
         <v>2254159</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="7">
         <v>1522407</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="8">
         <v>1577533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0</v>
+      </c>
+      <c r="C92" s="7">
+        <v>188413</v>
+      </c>
+      <c r="D92" s="7">
+        <v>194454</v>
+      </c>
+      <c r="E92" s="7">
+        <v>240519</v>
+      </c>
+      <c r="F92" s="8">
+        <v>199740</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7">
+        <v>0</v>
+      </c>
+      <c r="C93" s="7">
+        <v>88354</v>
+      </c>
+      <c r="D93" s="7">
+        <v>317545</v>
+      </c>
+      <c r="E93" s="7">
+        <v>237877</v>
+      </c>
+      <c r="F93" s="8">
+        <v>249203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>3</v>
+      </c>
+      <c r="B94" s="7">
+        <v>0</v>
+      </c>
+      <c r="C94" s="7">
+        <v>111008</v>
+      </c>
+      <c r="D94" s="7">
+        <v>188791</v>
+      </c>
+      <c r="E94" s="7">
+        <v>194454</v>
+      </c>
+      <c r="F94" s="8">
+        <v>362855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>4</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0</v>
+      </c>
+      <c r="C95" s="7">
+        <v>156319</v>
+      </c>
+      <c r="D95" s="7">
+        <v>206159</v>
+      </c>
+      <c r="E95" s="7">
+        <v>131775</v>
+      </c>
+      <c r="F95" s="8">
+        <v>197098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>5</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0</v>
+      </c>
+      <c r="C96" s="7">
+        <v>171800</v>
+      </c>
+      <c r="D96" s="24">
+        <v>160849</v>
+      </c>
+      <c r="E96" s="7">
+        <v>215599</v>
+      </c>
+      <c r="F96" s="8">
+        <v>254113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>6</v>
+      </c>
+      <c r="B97" s="7">
+        <v>0</v>
+      </c>
+      <c r="C97" s="7">
+        <v>187280</v>
+      </c>
+      <c r="D97" s="7">
+        <v>238254</v>
+      </c>
+      <c r="E97" s="7">
+        <v>226926</v>
+      </c>
+      <c r="F97" s="8">
+        <v>257511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>7</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7">
+        <v>297156</v>
+      </c>
+      <c r="D98" s="7">
+        <v>160850</v>
+      </c>
+      <c r="E98" s="7">
+        <v>188791</v>
+      </c>
+      <c r="F98" s="8">
+        <v>197475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>8</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0</v>
+      </c>
+      <c r="C99" s="7">
+        <v>229947</v>
+      </c>
+      <c r="D99" s="7">
+        <v>166891</v>
+      </c>
+      <c r="E99" s="7">
+        <v>198230</v>
+      </c>
+      <c r="F99" s="8">
+        <v>174820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>9</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0</v>
+      </c>
+      <c r="C100" s="7">
+        <v>131776</v>
+      </c>
+      <c r="D100" s="7">
+        <v>161227</v>
+      </c>
+      <c r="E100" s="7">
+        <v>158585</v>
+      </c>
+      <c r="F100" s="8">
+        <v>189168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>10</v>
+      </c>
+      <c r="B101" s="10">
+        <v>0</v>
+      </c>
+      <c r="C101" s="10">
+        <v>161605</v>
+      </c>
+      <c r="D101" s="10">
+        <v>199363</v>
+      </c>
+      <c r="E101" s="10">
+        <v>186902</v>
+      </c>
+      <c r="F101" s="11">
+        <v>189546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>0</v>
+      </c>
+      <c r="B103" s="7">
+        <v>0</v>
+      </c>
+      <c r="C103" s="7">
+        <v>407787</v>
+      </c>
+      <c r="D103" s="7">
+        <v>422891</v>
+      </c>
+      <c r="E103" s="7">
+        <v>543716</v>
+      </c>
+      <c r="F103" s="8">
+        <v>630938</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>1</v>
+      </c>
+      <c r="B104" s="7">
+        <v>0</v>
+      </c>
+      <c r="C104" s="7">
+        <v>419492</v>
+      </c>
+      <c r="D104" s="7">
+        <v>667563</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1085545</v>
+      </c>
+      <c r="F104" s="8">
+        <v>513510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>2</v>
+      </c>
+      <c r="B105" s="7">
+        <v>0</v>
+      </c>
+      <c r="C105" s="7">
+        <v>517286</v>
+      </c>
+      <c r="D105" s="7">
+        <v>412318</v>
+      </c>
+      <c r="E105" s="7">
+        <v>723067</v>
+      </c>
+      <c r="F105" s="8">
+        <v>589026</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>3</v>
+      </c>
+      <c r="B106" s="7">
+        <v>0</v>
+      </c>
+      <c r="C106" s="7">
+        <v>504071</v>
+      </c>
+      <c r="D106" s="7">
+        <v>493876</v>
+      </c>
+      <c r="E106" s="7">
+        <v>538430</v>
+      </c>
+      <c r="F106" s="8">
+        <v>495764</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>4</v>
+      </c>
+      <c r="B107" s="7">
+        <v>0</v>
+      </c>
+      <c r="C107" s="7">
+        <v>479905</v>
+      </c>
+      <c r="D107" s="7">
+        <v>529746</v>
+      </c>
+      <c r="E107" s="7">
+        <v>308483</v>
+      </c>
+      <c r="F107" s="8">
+        <v>649062</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>5</v>
+      </c>
+      <c r="B108" s="7">
+        <v>0</v>
+      </c>
+      <c r="C108" s="7">
+        <v>493121</v>
+      </c>
+      <c r="D108" s="7">
+        <v>348507</v>
+      </c>
+      <c r="E108" s="7">
+        <v>636601</v>
+      </c>
+      <c r="F108" s="8">
+        <v>589026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
+        <v>6</v>
+      </c>
+      <c r="B109" s="7">
+        <v>0</v>
+      </c>
+      <c r="C109" s="7">
+        <v>382111</v>
+      </c>
+      <c r="D109" s="7">
+        <v>623763</v>
+      </c>
+      <c r="E109" s="7">
+        <v>513510</v>
+      </c>
+      <c r="F109" s="8">
+        <v>654726</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
+        <v>7</v>
+      </c>
+      <c r="B110" s="7">
+        <v>0</v>
+      </c>
+      <c r="C110" s="7">
+        <v>544850</v>
+      </c>
+      <c r="D110" s="7">
+        <v>522572</v>
+      </c>
+      <c r="E110" s="7">
+        <v>452342</v>
+      </c>
+      <c r="F110" s="8">
+        <v>615457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
+        <v>8</v>
+      </c>
+      <c r="B111" s="7">
+        <v>0</v>
+      </c>
+      <c r="C111" s="7">
+        <v>473109</v>
+      </c>
+      <c r="D111" s="7">
+        <v>353038</v>
+      </c>
+      <c r="E111" s="7">
+        <v>580342</v>
+      </c>
+      <c r="F111" s="8">
+        <v>769510</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>9</v>
+      </c>
+      <c r="B112" s="7">
+        <v>0</v>
+      </c>
+      <c r="C112" s="7">
+        <v>419870</v>
+      </c>
+      <c r="D112" s="7">
+        <v>272613</v>
+      </c>
+      <c r="E112" s="7">
+        <v>375315</v>
+      </c>
+      <c r="F112" s="8">
+        <v>619611</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>10</v>
+      </c>
+      <c r="B113" s="10">
+        <v>0</v>
+      </c>
+      <c r="C113" s="10">
+        <v>205026</v>
+      </c>
+      <c r="D113" s="10">
+        <v>484058</v>
+      </c>
+      <c r="E113" s="10">
+        <v>789521</v>
+      </c>
+      <c r="F113" s="11">
+        <v>1055716</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>